--- a/result/day/day_description.xlsx
+++ b/result/day/day_description.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2642</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
         </is>
       </c>
     </row>
@@ -476,10 +496,22 @@
         <v>0.0006494277214913333</v>
       </c>
       <c r="E2" t="n">
+        <v>0.002569863742968529</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001354245717595683</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.001566520035719825</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.001418693074960948</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>0.001153435201188786</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0009383791943807342</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +530,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.002066986802534476</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001307047535217709</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.002051030431418521</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004375894797155055</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +564,22 @@
         <v>0.02016000267101208</v>
       </c>
       <c r="E4" t="n">
+        <v>0.0302408957597209</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0292496393879799</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02932784946418823</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.03089227232063047</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>0.02412729726379485</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01258210165803851</v>
       </c>
     </row>
     <row r="5">
@@ -542,10 +598,22 @@
         <v>0.0004064257076952144</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0009145117763503057</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000855541404326865</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0008601227541940858</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.0009543324891319911</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>0.0005821264732555222</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0001583092821332155</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +632,22 @@
         <v>8.288151050123252</v>
       </c>
       <c r="E6" t="n">
+        <v>1.442242254850389</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.640090388150255</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.517699672222944</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.949933602120165</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>0.6466095643313823</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.327366232341018</v>
       </c>
     </row>
     <row r="7">
@@ -586,10 +666,22 @@
         <v>-0.4378497558332238</v>
       </c>
       <c r="E7" t="n">
+        <v>0.437688932767998</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1849258282862508</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.004210508105096646</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.07144458742376446</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>-0.2769454352466076</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1958683994701488</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +700,22 @@
         <v>-0.09520698595458654</v>
       </c>
       <c r="E8" t="n">
+        <v>-0.09105996551563056</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.09378296231538341</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.09531017980432432</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.09519071262778933</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>-0.07630819306332359</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.03662901868390378</v>
       </c>
     </row>
     <row r="9">
@@ -630,10 +734,22 @@
         <v>0.1039651202355549</v>
       </c>
       <c r="E9" t="n">
+        <v>0.1325146157194359</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1033527708273549</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1017042044547156</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1041535149077912</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>0.06517607296025085</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.04448981270230234</v>
       </c>
     </row>
     <row r="10">
@@ -652,10 +768,22 @@
         <v>0.159759219486868</v>
       </c>
       <c r="E10" t="n">
+        <v>0.6321864807702582</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.333144446528538</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3853639287870769</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3489984964403932</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>0.2837450594924413</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2308412818176606</v>
       </c>
     </row>
     <row r="11">
@@ -679,6 +807,18 @@
       <c r="F11" t="n">
         <v>246</v>
       </c>
+      <c r="G11" t="n">
+        <v>246</v>
+      </c>
+      <c r="H11" t="n">
+        <v>246</v>
+      </c>
+      <c r="I11" t="n">
+        <v>246</v>
+      </c>
+      <c r="J11" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -696,10 +836,22 @@
         <v>-0.007986355095270015</v>
       </c>
       <c r="E12" t="n">
+        <v>-0.01636048754970187</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.01716790874510477</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.01178051833767702</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.01356409413224902</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>-0.01185908438767969</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.007740889983881782</v>
       </c>
     </row>
     <row r="13">
@@ -718,10 +870,22 @@
         <v>0.01023466125487871</v>
       </c>
       <c r="E13" t="n">
+        <v>0.01977666518409982</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01669075844315393</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01569583119925289</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.0161041324388711</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>0.01555246306393421</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.008803971047448123</v>
       </c>
     </row>
   </sheetData>
